--- a/Result/ARIMA/Manufacturing/CAN.xlsx
+++ b/Result/ARIMA/Manufacturing/CAN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,6 +627,36 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9.426150823826994</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9.975422544339398</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9.928004135207868</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -671,72 +701,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>9.187168466335716</v>
+        <v>9.901414312322137</v>
       </c>
       <c r="C2" t="n">
-        <v>8.231567153414208</v>
+        <v>8.90633742114554</v>
       </c>
       <c r="D2" t="n">
-        <v>10.14276977925723</v>
+        <v>10.89649120349873</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>8.797793423687974</v>
+        <v>9.88650409719591</v>
       </c>
       <c r="C3" t="n">
-        <v>7.158620269437977</v>
+        <v>8.042001573615039</v>
       </c>
       <c r="D3" t="n">
-        <v>10.43696657793797</v>
+        <v>11.73100662077678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>8.413122483953298</v>
+        <v>9.878143209796782</v>
       </c>
       <c r="C4" t="n">
-        <v>6.204719863370216</v>
+        <v>7.254408567636447</v>
       </c>
       <c r="D4" t="n">
-        <v>10.62152510453638</v>
+        <v>12.50187785195712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>8.030303486921396</v>
+        <v>9.873454851009932</v>
       </c>
       <c r="C5" t="n">
-        <v>5.338988240403523</v>
+        <v>6.549099494401512</v>
       </c>
       <c r="D5" t="n">
-        <v>10.72161873343927</v>
+        <v>13.19781020761835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>7.648213575081237</v>
+        <v>9.870825858767249</v>
       </c>
       <c r="C6" t="n">
-        <v>4.536869717166462</v>
+        <v>5.917338407092412</v>
       </c>
       <c r="D6" t="n">
-        <v>10.75955743299601</v>
+        <v>13.82431331044209</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,6 +1029,36 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.718852878180762</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.308124220877686</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.897395563574609</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1046,13 +1106,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>9.791132460187619</v>
+        <v>6.737051750739516</v>
       </c>
       <c r="C2" t="n">
-        <v>8.862647013605232</v>
+        <v>5.442072842489672</v>
       </c>
       <c r="D2" t="n">
-        <v>10.71961790677001</v>
+        <v>8.03203065898936</v>
       </c>
     </row>
     <row r="3">
@@ -1060,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>9.607901088099856</v>
+        <v>6.674455343458581</v>
       </c>
       <c r="C3" t="n">
-        <v>7.993581600172162</v>
+        <v>4.456605700611498</v>
       </c>
       <c r="D3" t="n">
-        <v>11.22222057602755</v>
+        <v>8.892304986305664</v>
       </c>
     </row>
     <row r="4">
@@ -1074,13 +1134,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>9.378937996917374</v>
+        <v>6.650018415489863</v>
       </c>
       <c r="C4" t="n">
-        <v>7.184691083309071</v>
+        <v>3.664990140478749</v>
       </c>
       <c r="D4" t="n">
-        <v>11.57318491052568</v>
+        <v>9.635046690500976</v>
       </c>
     </row>
     <row r="5">
@@ -1088,13 +1148,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>9.130662441102631</v>
+        <v>6.640478515765775</v>
       </c>
       <c r="C5" t="n">
-        <v>6.440654420022668</v>
+        <v>3.00513430308202</v>
       </c>
       <c r="D5" t="n">
-        <v>11.82067046218259</v>
+        <v>10.27582272844953</v>
       </c>
     </row>
     <row r="6">
@@ -1102,13 +1162,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>8.874231248509838</v>
+        <v>6.636754247033545</v>
       </c>
       <c r="C6" t="n">
-        <v>5.751677809540086</v>
+        <v>2.435946444628611</v>
       </c>
       <c r="D6" t="n">
-        <v>11.99678468747959</v>
+        <v>10.83756204943848</v>
       </c>
     </row>
   </sheetData>

--- a/Result/ARIMA/Manufacturing/CAN.xlsx
+++ b/Result/ARIMA/Manufacturing/CAN.xlsx
@@ -463,7 +463,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>16.0447460841663</v>
+        <v>-0.2938333355280292</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>16.25312719621408</v>
+        <v>15.75091470315856</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>17.07630687844336</v>
+        <v>16.16840410683831</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>17.02443712519088</v>
+        <v>17.24757140726266</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>16.03874062392151</v>
+        <v>16.83135171612134</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>15.70905941004635</v>
+        <v>15.45683179089128</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>14.66325348159223</v>
+        <v>15.40029986381569</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>14.29554309123741</v>
+        <v>14.05631650138167</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>13.37476161969874</v>
+        <v>13.97094909323009</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>12.58334034935793</v>
+        <v>12.81988187335937</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>11.90294486771548</v>
+        <v>12.08232313850581</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>10.6115120938541</v>
+        <v>11.4481561755916</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>10.06119641018396</v>
+        <v>9.902301890852771</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>10.02715411219138</v>
+        <v>9.660569876665109</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>9.95539617251473</v>
+        <v>9.841491634848071</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>10.02016741416535</v>
+        <v>9.754029791885703</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>9.588492358255939</v>
+        <v>9.875648563195281</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>9.426150823826994</v>
+        <v>9.23726498277656</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>9.975422544339398</v>
+        <v>9.187067571689358</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>9.928004135207868</v>
+        <v>10.03263826083776</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -704,13 +704,13 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>9.901414312322137</v>
+        <v>9.73677216079953</v>
       </c>
       <c r="C2" t="n">
-        <v>8.90633742114554</v>
+        <v>8.781617266557998</v>
       </c>
       <c r="D2" t="n">
-        <v>10.89649120349873</v>
+        <v>10.69192705504106</v>
       </c>
     </row>
     <row r="3">
@@ -718,13 +718,13 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>9.88650409719591</v>
+        <v>9.485659611132803</v>
       </c>
       <c r="C3" t="n">
-        <v>8.042001573615039</v>
+        <v>7.829595616695726</v>
       </c>
       <c r="D3" t="n">
-        <v>11.73100662077678</v>
+        <v>11.14172360556988</v>
       </c>
     </row>
     <row r="4">
@@ -732,13 +732,13 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>9.878143209796782</v>
+        <v>9.20961420282806</v>
       </c>
       <c r="C4" t="n">
-        <v>7.254408567636447</v>
+        <v>6.962783394152994</v>
       </c>
       <c r="D4" t="n">
-        <v>12.50187785195712</v>
+        <v>11.45644501150313</v>
       </c>
     </row>
     <row r="5">
@@ -746,13 +746,13 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>9.873454851009932</v>
+        <v>8.923187340484494</v>
       </c>
       <c r="C5" t="n">
-        <v>6.549099494401512</v>
+        <v>6.172169862629597</v>
       </c>
       <c r="D5" t="n">
-        <v>13.19781020761835</v>
+        <v>11.67420481833939</v>
       </c>
     </row>
     <row r="6">
@@ -760,13 +760,13 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>9.870825858767249</v>
+        <v>8.632437885632589</v>
       </c>
       <c r="C6" t="n">
-        <v>5.917338407092412</v>
+        <v>5.441839916754424</v>
       </c>
       <c r="D6" t="n">
-        <v>13.82431331044209</v>
+        <v>11.82303585451075</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +815,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>16.0447460841663</v>
+        <v>-0.376768595936489</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -825,7 +825,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>16.25312719621408</v>
+        <v>15.66797847531893</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -835,7 +835,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>17.07630687844336</v>
+        <v>15.97003704622982</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -845,7 +845,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>17.02443712519088</v>
+        <v>16.89164175352523</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>16.03874062392151</v>
+        <v>16.69968260064824</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -865,7 +865,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>15.70905941004635</v>
+        <v>15.56448685604645</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -875,7 +875,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>14.66325348159223</v>
+        <v>15.33982918030426</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -885,7 +885,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>14.29554309123741</v>
+        <v>14.17937660761066</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>13.37476161969874</v>
+        <v>13.92022465174941</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -905,7 +905,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>12.58334034935793</v>
+        <v>12.9109003018646</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -915,7 +915,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>11.90294486771548</v>
+        <v>12.1401887105274</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -925,7 +925,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>10.6115120938541</v>
+        <v>11.47756769447617</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -935,7 +935,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>10.06119641018396</v>
+        <v>10.08831205033546</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -945,7 +945,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>10.02715411219138</v>
+        <v>9.656644118445413</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -955,7 +955,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>9.95539617251473</v>
+        <v>9.705253640691833</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -965,7 +965,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>10.02016741416535</v>
+        <v>9.627457686034848</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -975,7 +975,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>9.588492358255939</v>
+        <v>9.714086311128989</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>9.426150823826994</v>
+        <v>9.202933615498912</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>9.975422544339398</v>
+        <v>9.083710526489201</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>9.928004135207868</v>
+        <v>9.746906637564393</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>2017</v>
       </c>
       <c r="B22" t="n">
-        <v>9.68457578828024</v>
+        <v>9.603962240260932</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>2018</v>
       </c>
       <c r="B23" t="n">
-        <v>9.866071588318858</v>
+        <v>9.329154049643474</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="n">
-        <v>7.718852878180762</v>
+        <v>9.5786772847283</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="n">
-        <v>7.308124220877686</v>
+        <v>7.058647388845118</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>2021</v>
       </c>
       <c r="B26" t="n">
-        <v>6.897395563574609</v>
+        <v>6.925918852554233</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1106,13 +1106,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>6.737051750739516</v>
+        <v>6.515190195251154</v>
       </c>
       <c r="C2" t="n">
-        <v>5.442072842489672</v>
+        <v>5.329707004648185</v>
       </c>
       <c r="D2" t="n">
-        <v>8.03203065898936</v>
+        <v>7.700673385854124</v>
       </c>
     </row>
     <row r="3">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>6.674455343458581</v>
+        <v>6.137551209427303</v>
       </c>
       <c r="C3" t="n">
-        <v>4.456605700611498</v>
+        <v>4.32185838159057</v>
       </c>
       <c r="D3" t="n">
-        <v>8.892304986305664</v>
+        <v>7.953244037264036</v>
       </c>
     </row>
     <row r="4">
@@ -1134,13 +1134,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>6.650018415489863</v>
+        <v>5.760643270052815</v>
       </c>
       <c r="C4" t="n">
-        <v>3.664990140478749</v>
+        <v>3.464427835270868</v>
       </c>
       <c r="D4" t="n">
-        <v>9.635046690500976</v>
+        <v>8.056858704834761</v>
       </c>
     </row>
     <row r="5">
@@ -1148,13 +1148,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>6.640478515765775</v>
+        <v>5.383852366189734</v>
       </c>
       <c r="C5" t="n">
-        <v>3.00513430308202</v>
+        <v>2.689011239936245</v>
       </c>
       <c r="D5" t="n">
-        <v>10.27582272844953</v>
+        <v>8.078693492443222</v>
       </c>
     </row>
     <row r="6">
@@ -1162,13 +1162,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>6.636754247033545</v>
+        <v>5.00708019890754</v>
       </c>
       <c r="C6" t="n">
-        <v>2.435946444628611</v>
+        <v>1.965052996897389</v>
       </c>
       <c r="D6" t="n">
-        <v>10.83756204943848</v>
+        <v>8.049107400917691</v>
       </c>
     </row>
   </sheetData>
